--- a/Kovshov_Java/Kovshov_Bug_Report.xlsx
+++ b/Kovshov_Java/Kovshov_Bug_Report.xlsx
@@ -335,10 +335,10 @@
     <t>Кнопка "На главную страницу" имеет нормальный "хитбокс" только на главной странице, на остальных кликабельная только нижня половина (при масштабировании иногода и вовсе не кликабельна)</t>
   </si>
   <si>
-    <t>Открыть "Контакты" "Банкоматы и отделения" или "Контакты"</t>
-  </si>
-  <si>
     <t>Кликабельна только нижняя половина кнопки</t>
+  </si>
+  <si>
+    <t>Открыть "Контакты" "Банкоматы и отделения" или "Курсы валют"</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1960,13 +1960,13 @@
         <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
